--- a/medicine/Enfance/Roman_de_Renart/Roman_de_Renart.xlsx
+++ b/medicine/Enfance/Roman_de_Renart/Roman_de_Renart.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Roman de Renart est un ensemble médiéval de récits animaliers écrits en ancien français et en vers. Ces récits disparates, rédigés par différents auteurs, sont appelés à partir du Moyen Âge « branches ». Ils sont composés principalement en octosyllabes à rimes plates. Les branches les plus anciennes (vers 1174) sont attribuées à un certain Pierre de Saint-Cloud. Dès le XIIIe siècle, les branches sont regroupées en recueils, apportant une certaine unité. Les auteurs du Roman de Renart sont pour la plupart anonymes mais quelques-uns sont identifiés : Pierre de Saint-Cloud, Richard de Lison, et un prêtre, de la Croix-en-Brie[1],[2],[3]. 
+Roman de Renart est un ensemble médiéval de récits animaliers écrits en ancien français et en vers. Ces récits disparates, rédigés par différents auteurs, sont appelés à partir du Moyen Âge « branches ». Ils sont composés principalement en octosyllabes à rimes plates. Les branches les plus anciennes (vers 1174) sont attribuées à un certain Pierre de Saint-Cloud. Dès le XIIIe siècle, les branches sont regroupées en recueils, apportant une certaine unité. Les auteurs du Roman de Renart sont pour la plupart anonymes mais quelques-uns sont identifiés : Pierre de Saint-Cloud, Richard de Lison, et un prêtre, de la Croix-en-Brie. 
 Le Roman de Renart (avec l'article défini) est le titre des éditions modernes, qui considèrent cet ensemble comme une œuvre cohérente. Celle-ci raconte les tours et violences dont le goupil Renart est l'auteur, aux dépens des autres animaux du royaume. Les animaux sont présentés avec des caractéristiques anthropomorphiques, mais vivant au contact de l'homme.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Contexte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dès le XIIe siècle, la bourgeoisie a sa propre littérature, véritable satire sociale avant la lettre. Elle est par essence malicieuse, pittoresque, mais le plus souvent réaliste. Il nous en reste essentiellement des fabliaux (Estula, Le Lévrier et le Serpent, Les Trois Aveugles de Compiègne), le Roman de Renart, et, plus tard, des farces (La Farce de Maître Pathelin, XVe siècle).
 Le Roman de Renart est une œuvre composée de courts récits indépendants en vers octosyllabiques. Écrit en français, langue romane d'où le nom roman, il comprend vingt-sept branches rédigées, au cours des temps, par des auteurs différents. Il met en scène des animaux dont les deux principaux sont le loup Ysengrin et surtout le goupil Renart, le héros si célèbre. Le récit contient 80 000 vers, à rimes plates pour favoriser la récitation de ces récits (ils étaient racontés, sous diverses formes, par les jongleurs à la population, très peu de gens sachant lire et écrire au Moyen Âge).
@@ -545,7 +559,9 @@
           <t>Interprétations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces textes ont des fonctions diverses :
 de critique sociale des classes dominantes, incapables de nourrir les petites gens ; de parodie des chansons de geste et romans courtois, mêlée d'anticléricalisme ;
@@ -585,14 +601,53 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Origine des noms
-Dans le récit en vers Ysengrimus, de Nivard de Gand[4] de 1148, plusieurs animaux retrouvent un nom fixé, de longue date, par la tradition. Ce sont : Reinardus le goupil, Balduinus l’âne (Baudouin), Bruno l’ours. Le nom des autres animaux ne reparaît plus… Inventés pour la circonstance, ils disparaîtront avec leur auteur.
+          <t>Origine des noms</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Dans le récit en vers Ysengrimus, de Nivard de Gand de 1148, plusieurs animaux retrouvent un nom fixé, de longue date, par la tradition. Ce sont : Reinardus le goupil, Balduinus l’âne (Baudouin), Bruno l’ours. Le nom des autres animaux ne reparaît plus… Inventés pour la circonstance, ils disparaîtront avec leur auteur.
 En Allemagne, nous retrouvons dans le Glichezâre : Reinhart pour Renart, Dieprecht pour Tibert, Diezelin pour Ticelin.
 Renart est un anthroponyme d'origine germanique utilisé en France, il est issu de Reginhard (ragin ou regin « conseil » + hard « dur, fort, hardi » cf. suffixe français -ard). Le substantif renard est au départ un prénom, c'est la raison pour laquelle une version allemande de Renard le goupil est appelée en moyen haut allemand Reinhart Fuchs et une autre Reineke Fuchs, Reineke étant un hypocoristique du prénom Reinhart / Reinhard équivalent allemand de l'ancien prénom français Renart, devenue commune en tant que patronyme avec la graphie Renard ; c'est la popularité de ce goupil prénommé Renart qui en fait un substantif ayant peu à peu évincé le terme générique goupil, qui subsiste cependant dans certains dialectes d'oïl.
 Variantes régionales : Raynard, porté notamment en Vendée, Puy-de-Dôme et en région lyonnaise. Raynart, Rainart (06), Rainard (79, 86). Regnard, porté notamment dans l'Yonne et la Somme, Regnart (51, 80) ; Réginard, Reynard, porté dans la région lyonnaise et le Vaucluse.
-Ysengrin, Ysen-grin est aussi un nom de personne germanique utilisé au Moyen Âge en France.
-Origine des textes
-Les sources du Roman de Renart sont variées[5]. Figurent au nombre de celles-ci l’Ecbasis captivi et surtout l’Ysengrimus de Nivard de Gand[5]. S’y ajoutent des fables ésopiques gréco-latines, adaptées en français dans des recueils nommés isopets et reprises par Marie de France[5].
+Ysengrin, Ysen-grin est aussi un nom de personne germanique utilisé au Moyen Âge en France.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Roman_de_Renart</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roman_de_Renart</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Origines</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Origine des textes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les sources du Roman de Renart sont variées. Figurent au nombre de celles-ci l’Ecbasis captivi et surtout l’Ysengrimus de Nivard de Gand. S’y ajoutent des fables ésopiques gréco-latines, adaptées en français dans des recueils nommés isopets et reprises par Marie de France.
 Ces textes sont issus d'une longue tradition de récits animaliers rédigés en latin médiéval.
 Elle peut se retrouver dans :
 le Pañchatantra, livre de contes indiens très anciens, parvenu en Europe sous diverses traductions (en arabe, grec, hébreu, latin...) ;
@@ -600,47 +655,204 @@
 des auteurs grecs (Ésope) et latins (Phèdre) ;
 des poèmes en latin, surtout ceux de :
 la Disciplina clericalis, recueil « d'exempla » (petits contes moraux) d'origine orientale composé en latin vers 1110 par Pierre Alphonse, médecin sépharade converti au christianisme. Ces récits ont eu un succès durable dans la littérature européenne comme la première élaboration connue du « Conte du loup et du renard dans le puits » (branche IV du Roman) ou des récits fournissant l'intrigue d'autres fabliaux célèbres ;
-l'« Ysengrimus » : 6 500 vers en distiques latins, où l'on trouve pour la première fois, le personnage de Reinardus du clerc flamand Nivard de Gand qu'il écrivit vers 1148 sous le titre premier de « Reinardus Vulpes » [6] ;
+l'« Ysengrimus » : 6 500 vers en distiques latins, où l'on trouve pour la première fois, le personnage de Reinardus du clerc flamand Nivard de Gand qu'il écrivit vers 1148 sous le titre premier de « Reinardus Vulpes »  ;
 les Fables de Marie de France, qui datent de 1152.</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Roman_de_Renart</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Roman_de_Renart</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Roman_de_Renart</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roman_de_Renart</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Les textes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les auteurs identifiés
-Peu d'auteurs sont connus. Le plus ancien est probablement Pierre de Saint-Cloud. On a également identifié Richard de Lison, et un troisième auteur désigné comme étant « le prêtre de la Croix-en-Brie ». Mais il y a 29 autres auteurs non identifiés.
-Pierre de Saint-Cloud
- Pierre de Saint-Cloud est un poète français de la seconde moitié du XIIe siècle. Les branches II et Va du Roman de Renard lui sont attribuées. Il aurait été le collaborateur d'Alexandre de Paris pour la Quatrième partie du Roman d'Alexandre[7].
-Richard de Lison
- Richard de Lison[8],[9] est un clerc[8],[9] français[8] du XIIe siècle[8]. Auteur de la branche XII[8] vers 1190[9], il précise son identité à la fin de ses écrits : « ceci vous a [été] dit [par] Richard de Lison »[9].
-Prêtre de la Croix-en-Brie
- Le prêtre de la Croix-en-Brie est l'auteur de la branche IX[10],[9] au commencement du XIIIe siècle. Il se présente au début de son œuvre : « Un prêtre de la Croix-en-Brie […] a mis tout son soin et toute son application à faire une nouvelle branche sur Renart, qui s'y connaît en ruses et en tromperies ». Rien ne permet de savoir avec certitude s'il était prêtre de La Croix-en-Brie ou si ce nom n'est qu'un pseudonyme. La vie rustique et villageoise dont il dresse le tableau correspond à celle de l'Île-de-France aux XIIe et XIIIe siècles[9].
-Les branches
-Elles ont varié au gré des rééditions, d'autant que les manuscrits ne les présentaient ni en fonction de la chronologie interne du roman, ni en fonction de leur date de composition (certaines étant de plus altérées ou mélangées). Leur identification par Ernest Martin fait toutefois office de référence :
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Les auteurs identifiés</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Peu d'auteurs sont connus. Le plus ancien est probablement Pierre de Saint-Cloud. On a également identifié Richard de Lison, et un troisième auteur désigné comme étant « le prêtre de la Croix-en-Brie ». Mais il y a 29 autres auteurs non identifiés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Roman_de_Renart</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roman_de_Renart</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Les textes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Les auteurs identifiés</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Pierre de Saint-Cloud</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pierre de Saint-Cloud est un poète français de la seconde moitié du XIIe siècle. Les branches II et Va du Roman de Renard lui sont attribuées. Il aurait été le collaborateur d'Alexandre de Paris pour la Quatrième partie du Roman d'Alexandre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Roman_de_Renart</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roman_de_Renart</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Les textes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Les auteurs identifiés</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Richard de Lison</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Richard de Lison, est un clerc, français du XIIe siècle. Auteur de la branche XII vers 1190, il précise son identité à la fin de ses écrits : « ceci vous a [été] dit [par] Richard de Lison ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Roman_de_Renart</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roman_de_Renart</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Les textes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Les auteurs identifiés</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Prêtre de la Croix-en-Brie</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Le prêtre de la Croix-en-Brie est l'auteur de la branche IX, au commencement du XIIIe siècle. Il se présente au début de son œuvre : « Un prêtre de la Croix-en-Brie […] a mis tout son soin et toute son application à faire une nouvelle branche sur Renart, qui s'y connaît en ruses et en tromperies ». Rien ne permet de savoir avec certitude s'il était prêtre de La Croix-en-Brie ou si ce nom n'est qu'un pseudonyme. La vie rustique et villageoise dont il dresse le tableau correspond à celle de l'Île-de-France aux XIIe et XIIIe siècles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Roman_de_Renart</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roman_de_Renart</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Les textes</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Les branches</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elles ont varié au gré des rééditions, d'autant que les manuscrits ne les présentaient ni en fonction de la chronologie interne du roman, ni en fonction de leur date de composition (certaines étant de plus altérées ou mélangées). Leur identification par Ernest Martin fait toutefois office de référence :
 Branche I : Le jugement de Renart. Le siège de Maupertuis (Ia). Renart teinturier (Ib). Renart jongleur.
 Branche II : Chantecler le coq. La mésange. Tibert le chat. Tiécelin le corbeau. Renart et Hersent.
 Branche III : Le poisson des charretiers. Ysengrin fait moine. La pêche aux anguilles.
@@ -672,71 +884,113 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Roman_de_Renart</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Roman_de_Renart</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Roman_de_Renart</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roman_de_Renart</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Traductions médiévales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Versions en flamand et bas saxon
-Alors que la plus ancienne source littéraire de l'épopée de Renard, l'Ysengrinus, avait déjà été composée en Flandre à Gand vers 1148, par le clerc Nivard de Gand, il existe une version en moyen néerlandais (le flamand, précisément), « Van den vos Reynaerde (nl) », datant du treizième siècle et reprenant le texte de la version française ultérieure, surtout de la branche de Pierre de Saint-Cloud. L'auteur serait un certain Willem die Madocke maecte (nl) et la traduction est formée de 3 469 vers. C'est cette traduction qui a permis au personnage d'être devenu populaire en Flandre et aux Pays-Bas. C'est lui aussi un des grands écrits littéraires médiévaux de la langue néerlandaise. On trouve même à Hulst une statue à son effigie.
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Versions en flamand et bas saxon</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alors que la plus ancienne source littéraire de l'épopée de Renard, l'Ysengrinus, avait déjà été composée en Flandre à Gand vers 1148, par le clerc Nivard de Gand, il existe une version en moyen néerlandais (le flamand, précisément), « Van den vos Reynaerde (nl) », datant du treizième siècle et reprenant le texte de la version française ultérieure, surtout de la branche de Pierre de Saint-Cloud. L'auteur serait un certain Willem die Madocke maecte (nl) et la traduction est formée de 3 469 vers. C'est cette traduction qui a permis au personnage d'être devenu populaire en Flandre et aux Pays-Bas. C'est lui aussi un des grands écrits littéraires médiévaux de la langue néerlandaise. On trouve même à Hulst une statue à son effigie.
 Dans le 14e siècle, Van den vos Reynaerde fut retravaillé et augmenté jusqu'à être presque deux fois plus long. C'est sur cette version ultérieure, également en langue flamande, et connue comme Reinaerts Historie, qu'est basée une célèbre version de l’œuvre en bas saxon, parue en 1498 à Lübeck sous le nom de Reynke de vos.
-Versions en allemand et autres langues
-Une version allemande composée sans doute autour de 1180 par l'Alsacien Heinrich der Glichesaere est elle aussi plus ancienne que les plus anciens manuscrits français du roman de Renart qui nous sont parvenus. Le plus ancien manuscrit (début XIIIe siècle) est intitulé Isengrīnes nōt (le mal d'Ysengrin) et les deux copies du XIVe siècle ont adopté le titre de Reinhart Fuchs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Roman_de_Renart</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roman_de_Renart</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Traductions médiévales</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Versions en allemand et autres langues</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une version allemande composée sans doute autour de 1180 par l'Alsacien Heinrich der Glichesaere est elle aussi plus ancienne que les plus anciens manuscrits français du roman de Renart qui nous sont parvenus. Le plus ancien manuscrit (début XIIIe siècle) est intitulé Isengrīnes nōt (le mal d'Ysengrin) et les deux copies du XIVe siècle ont adopté le titre de Reinhart Fuchs.
 C'est sur la version en bas saxon Reynke de vos (1498, voir sous Versions en flamand et bas saxon) que Johann Christoph Gottsched en 1752 puis, indirectement, Goethe en 1794 se sont appuyés pour écrire en allemand leurs propres versions de Reineke Fuchs. L'intérêt du poème original de Heinrich der Glichesaere n'avait pas échappé à Jacob Grimm qui l'a repris et publié sous le titre Reinhart Fuchs à Berlin en 1834.
 Le Reynke de vos bas-saxon a également été traduit en danois. Ces traductions en allemand et en danois ont mené à des traductions en suédois, islandais, latin et anglais.
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Roman_de_Renart</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Roman_de_Renart</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Roman_de_Renart</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roman_de_Renart</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Les personnages</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Renart : le renard (appelé goupil dans le roman, car c'était la dénomination en usage à l'époque) espiègle, rusé, personnage principal de ces récits. Complexe et polymorphe, allant du bon diable redresseur de torts au démon lubrique, fripon et débauché, il incarne la ruse intelligente liée à l'art de la belle parole. Aussi appelé « le maître des ruses ».
-Ysengrin : le loup, éternel ennemi de Renart, toujours dupé et ridiculisé[11]. Son épouse, Dame Hersent la louve, lui est infidèle avec Renart, d'où une éternelle rancœur. Il est l'oncle de Renart.
+Ysengrin : le loup, éternel ennemi de Renart, toujours dupé et ridiculisé. Son épouse, Dame Hersent la louve, lui est infidèle avec Renart, d'où une éternelle rancœur. Il est l'oncle de Renart.
 Drouineau, l'oiseau.
 Bruyant, le taureau.
 Primaut, le damp (seigneur) loup : frère d'Ysengrin (il s'agit possiblement du même personnage qu'Ysengrin lui-même).
@@ -784,74 +1038,81 @@
 Mouflart : le vautour
 Frobert : le grillon
 Frémont : la fourmi
-Conil : le lapin de garenne[12]
-Cointereau : un singe (dans un seul manuscrit[13])
+Conil : le lapin de garenne
+Cointereau : un singe (dans un seul manuscrit)
 Noiret : un coq (il s'agit possiblement du même personnage que Chantecler)
 Hermengart : une louve, femme de Primaut</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Roman_de_Renart</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Roman_de_Renart</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Roman_de_Renart</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roman_de_Renart</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Postérité dans la littérature médiévale</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon l'érudit Lucien Foulet, sa composition s’échelonne de 1174 à 1250. Vingt-huit auteurs indépendants y ont collaboré, dont seulement trois ont tenu à nous transmettre leur nom. Ces écrivains ont réalisé une œuvre maîtresse, et à succès.
 Rutebeuf écrivit un Renart le bestourné et un dit De Brichemer, et Jacquemart Giélée de Lille un Renart le Nouvel. Le Couronnement de Renart date de la seconde moitié du XIIIe siècle. Maurice Delbouille, dans Lettres françaises de Belgique  (dirigé par Charlier et Hanse), identifie son auteur par sa langue, « marquée fortement de particularités dialectales picardes et wallonnes », à un clerc vivant à la Cour du Comte de Namur. Le Couronnement de Renart par l'âpreté de son ton, la violence de ses mises en cause, paraît comme détaché du Roman de Renart proprement dit bien qu'il lui doive beaucoup.
-Au XIVe siècle, on réécrit deux fois Renart le Contrefait. D'après Corinne Pierreville [14] c'est l’œuvre d’un clerc anonyme qui pratiqua le métier d'apothicaire après avoir été révoqué de son ordre pour bigamie. La première version (BnF fr. 1630), de 31 940 octosyllabes, rédigée entre 1320 et 1327 [15], a été remaniée entre 1328 et 1342 pour donner naissance à une seconde version (manuscrit de Vienne 2562 et BnF fr. 370), qui ne compte pas moins de 40 000 vers.
+Au XIVe siècle, on réécrit deux fois Renart le Contrefait. D'après Corinne Pierreville  c'est l’œuvre d’un clerc anonyme qui pratiqua le métier d'apothicaire après avoir été révoqué de son ordre pour bigamie. La première version (BnF fr. 1630), de 31 940 octosyllabes, rédigée entre 1320 et 1327 , a été remaniée entre 1328 et 1342 pour donner naissance à une seconde version (manuscrit de Vienne 2562 et BnF fr. 370), qui ne compte pas moins de 40 000 vers.
 </t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Roman_de_Renart</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Roman_de_Renart</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Roman_de_Renart</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roman_de_Renart</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Textes : éditions, transcriptions, traductions</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Ancien français
-Le Roman de Renart, branche I, édition par Mario Roques, Paris, Champion, 1948.
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Ancien français</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Le Roman de Renart, branche I, édition par Mario Roques, Paris, Champion, 1948.
 Le Roman de Renart, branches II-VI, édition par Mario Roques, Paris, Champion, 1951.
 Le Roman de Renart, branches VII-IX, édition par Mario Roques, Paris, Champion, 1955.
 Le Roman de Renart, branches X-XI, édition par Mario Roques, Paris, Champion, 1958.
@@ -861,9 +1122,43 @@
 Les Aventures de Maître Renart et d'Ysengrin son compère, édition Bibliolâtres de France, illustrations de Rémy Lejeune (Ladoré), 1960.
 Le Roman de Renart, édition bilingue (ancien français - français moderne) publiée sous la direction d'Armand Strubel, avec la collaboration de Roger Bellon, Dominique Boutet et Sylvie Levèvre, Bibliothèque de la Pléiade, Paris, Gallimard, 1998.
 Le Roman de Renart, texte établi par Naoyuki Fukumoto, Noboru Harano et Satoru Suzuki, revu, présenté et traduit par Gabriel Bianciotto, collection Lettres Gothiques, Le Llivre de poche, 2005, 994 p.  (ISBN 2-253-08698-3)
-Renart le Contrefait, édition critique sous la direction de Corinne Pierreville, Paris, Champion, 2020.
-Traduction en français moderne
-Le Roman de Renart poème satirique du Moyen Âge, Louis Robert-Busquet, illustrations de Jean de La Fontinelle, Éditions Fernand Lanore, 1935, 284 p.
+Renart le Contrefait, édition critique sous la direction de Corinne Pierreville, Paris, Champion, 2020.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Roman_de_Renart</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roman_de_Renart</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Textes : éditions, transcriptions, traductions</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Traduction en français moderne</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Le Roman de Renart poème satirique du Moyen Âge, Louis Robert-Busquet, illustrations de Jean de La Fontinelle, Éditions Fernand Lanore, 1935, 284 p.
 Le Roman de Renart, version nouvelle de Paul Tuffrau, L'Artisan du Livre (Elvire Choureau), 1942 (avec des gravures sur bois de Lucien Boucher).
 Le Roman de Renart transcrit dans le respect de sa verdeur originale pour la récréation des tristes et la tristesse des cafards par Albert-Marie Schmidt, Albin Michel, 1963.
 Le Roman de Renart, texte transcrit et modernisé par Jacques Haumont, L'Édition d'Art  H. Piazza, 1966, couverture et ornements decoratifs par Jan-Loic Delbord, 204 p.
@@ -873,42 +1168,81 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Roman_de_Renart</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Roman_de_Renart</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Roman_de_Renart</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roman_de_Renart</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Littérature
-Le Roman de Renart a été souvent adapté en français moderne. 
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Littérature</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Le Roman de Renart a été souvent adapté en français moderne. 
 Léopold Chauveau, Le roman de renard (version moderne, 1924 pour la première édition), Éd. Payot Paris.
 Léopold Chauveau, Le roman de renard (version pour la jeunesse, illustré par l'auteur), Éd. Attinger.
 Samivel, Le Roman de Renart, Paris, Éditions Delagrave, À partir de 1936.
 Gisèle Vallerey, Le roman de renard, Édition Fernand Nathan (collection œuvres célèbres pour la jeunesse - 1936)
 Maurice Genevoix, Le roman de renard (1968) Éd. Plon.
-Xavier Kawa-Topor, Mon roman de Renart (2003) Éd. Actes Sud.
-Bande dessinée et illustration
-En 1906, Benjamin Rabier a illustré le Roman aux Éditions Tallandier[16].
+Xavier Kawa-Topor, Mon roman de Renart (2003) Éd. Actes Sud.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Roman_de_Renart</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roman_de_Renart</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Bande dessinée et illustration</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>En 1906, Benjamin Rabier a illustré le Roman aux Éditions Tallandier.
 Samivel a illustré plusieurs histoires en couleur : les Malheurs d'Ysengrin (Delagrave 1936), Goupil (Delagrave 1939), Brun l'Ours (Delagrave), Canard (Delagrave)
 René Goscinny et Albert Uderzo avaient dans un premier temps projeté d'adapter le Roman de Renart pour le compte du journal Pilote lors de son lancement en 1959. Cependant, le projet fut rapidement abandonné (car déjà commencé par Jean Trubert) au profit d'Astérix.
 En 1970, aux éditions Dupuis, Le Roman de Renart, illustré par René Hausman.
@@ -918,21 +1252,201 @@
 Dans la série Merlin, de Joann Sfar (scénario) et José-Luis Munuera (dessin), le tome 4, paru en 2001, intitulé Le Roman de la mère de Renart est une parodie humoristique du Roman de Renart.
 Renard est un personnage important du comics Fables, publiée entre 2003 et 2015, qui raconte l'exil des personnages de contes dans le monde réel.
 De 2007 à 2009, Le Roman de Renart est une série de bande dessinée pour la jeunesse de Jean-Marc Mathis (scénario) et Thierry Martin (dessin), parue aux éditions Delcourt.
-De 2007 à 2015, Le Roman de Renart, série de bande dessinée jeunesse parue aux éditions Gallimard, dans la collection Fétiche[17].
-Cinéma
-Animation
-Il existe plusieurs adaptations du roman en films d'animation ; notamment Le Roman de Renard, long métrage de Ladislas Starewitch avec marionnettes sorti en France en 1941 ou Le Roman de Renart, sorti en 2005.
-Disney
-Le Roman de Renart sert de base au Robin des Bois de Walt Disney Pictures[18],[19]. Le projet d'adaptation en dessin animé remonte aux années 1930 mais la gaillardise médiévale des aventures de Renart (connotations sexuelles, satire de la religion et des hommes d'église , en particulier des moines, souvent portraiturés en gros et gras profiteurs ainsi que l'immoralité fondamentale du héros, escroc, voleur et beau parleur qui met les rieurs de son côté) gênait considérablement Disney, surtout dans le contexte du très puritain Code Hays, qui plus est dans une œuvre destinée au jeune public[18]. C'est pourquoi les divers travaux, projets et esquisses d'un renard anthropomorphe et rusé furent finalement recyclés dans une œuvre très différente, mettant en scène Robin des Bois dans la forêt de Sherwood[18].
-Télévision
-En 1974, le Roman de Renart est adapté dans une série d'animation jeunesse en 18 épisodes, jouée par des marionnettes[20]. Elle est réalisée par Richard Rein et produite par l'ORTF. Les dialogues sont de Jean Ache. Henri Virlojeux et Alain Cuny prêtent respectivement leur voix à Renart et Ysengrin. Jean-Michel Caradec interprète les chansons. Animation : Monique Petit, Liliane Pelizza, Michel Lemaréchal. Musique et effets sonores : Bernard Parmegiani.
+De 2007 à 2015, Le Roman de Renart, série de bande dessinée jeunesse parue aux éditions Gallimard, dans la collection Fétiche.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Roman_de_Renart</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roman_de_Renart</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Animation</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe plusieurs adaptations du roman en films d'animation ; notamment Le Roman de Renard, long métrage de Ladislas Starewitch avec marionnettes sorti en France en 1941 ou Le Roman de Renart, sorti en 2005.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Roman_de_Renart</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roman_de_Renart</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Disney</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Roman de Renart sert de base au Robin des Bois de Walt Disney Pictures,. Le projet d'adaptation en dessin animé remonte aux années 1930 mais la gaillardise médiévale des aventures de Renart (connotations sexuelles, satire de la religion et des hommes d'église , en particulier des moines, souvent portraiturés en gros et gras profiteurs ainsi que l'immoralité fondamentale du héros, escroc, voleur et beau parleur qui met les rieurs de son côté) gênait considérablement Disney, surtout dans le contexte du très puritain Code Hays, qui plus est dans une œuvre destinée au jeune public. C'est pourquoi les divers travaux, projets et esquisses d'un renard anthropomorphe et rusé furent finalement recyclés dans une œuvre très différente, mettant en scène Robin des Bois dans la forêt de Sherwood.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Roman_de_Renart</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roman_de_Renart</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1974, le Roman de Renart est adapté dans une série d'animation jeunesse en 18 épisodes, jouée par des marionnettes. Elle est réalisée par Richard Rein et produite par l'ORTF. Les dialogues sont de Jean Ache. Henri Virlojeux et Alain Cuny prêtent respectivement leur voix à Renart et Ysengrin. Jean-Michel Caradec interprète les chansons. Animation : Monique Petit, Liliane Pelizza, Michel Lemaréchal. Musique et effets sonores : Bernard Parmegiani.
 Marionnettes et maquettes des décors : Jacques Schmidt et Patrick Obligine. Décor : Maurice Izard. Générique : Maxime Le Forestier.
 En 1985, Le Roman de Renart a été adapté assez librement et « modernisé » dans une série d'animation française intitulée Moi Renart.
-Théâtre
-Le Roman de Renart a fait l'objet d'une adaptation conte et théâtre par le Totem Théâtre de Colmar (création en 2002, toujours en cours d'exploitation )[21].
-Le Roman de Renart est également une pièce de théâtre tout public en cours d'exploitation par la Compagnie Olinda basée à Aix-en-Provence[22].
-Web
-Le roman de Renart, texte original en ancien français et traduction en français moderne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Roman_de_Renart</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roman_de_Renart</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Le Roman de Renart a fait l'objet d'une adaptation conte et théâtre par le Totem Théâtre de Colmar (création en 2002, toujours en cours d'exploitation ).
+Le Roman de Renart est également une pièce de théâtre tout public en cours d'exploitation par la Compagnie Olinda basée à Aix-en-Provence.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Roman_de_Renart</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roman_de_Renart</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Web</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Le roman de Renart, texte original en ancien français et traduction en français moderne.
 Le Roman de Goupil le renard, qui date de 2006, est une suite librement adaptée du Roman de Renart.</t>
         </is>
       </c>
